--- a/Additional files/Datasets/general/validation_data.xlsx
+++ b/Additional files/Datasets/general/validation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oehhacloud-my.sharepoint.com/personal/scott_coffin_oehha_ca_gov/Documents/R_new/PFOS_PBPK_fork/Additional files/Datasets/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{92551407-7306-4BC8-9F1E-BE7E0DC0E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{379C590D-F4DC-4FA8-8CFF-CB58D6D27675}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{92551407-7306-4BC8-9F1E-BE7E0DC0E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29012439-9740-437F-A70F-5151D67468C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,55 +96,55 @@
 outbred, SPF quality)</t>
   </si>
   <si>
+    <t>PFAS</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Dose_mg_per_kg</t>
+  </si>
+  <si>
+    <t>Interval_Hours</t>
+  </si>
+  <si>
+    <t>Time_Serum_Collected_hr</t>
+  </si>
+  <si>
+    <t>Serum_Concentration_mg_L</t>
+  </si>
+  <si>
+    <t>Model_Type</t>
+  </si>
+  <si>
+    <t>Exposure_Duration_Days</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>two-compartment</t>
+  </si>
+  <si>
+    <t>single-compartment</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>PFHpA</t>
+  </si>
+  <si>
+    <t>PFHxA</t>
+  </si>
+  <si>
+    <t>PFHxS</t>
+  </si>
+  <si>
     <t>PBPK</t>
-  </si>
-  <si>
-    <t>PFAS</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Dose_mg_per_kg</t>
-  </si>
-  <si>
-    <t>Interval_Hours</t>
-  </si>
-  <si>
-    <t>Time_Serum_Collected_hr</t>
-  </si>
-  <si>
-    <t>Serum_Concentration_mg_L</t>
-  </si>
-  <si>
-    <t>Model_Type</t>
-  </si>
-  <si>
-    <t>Exposure_Duration_Days</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>two-compartment</t>
-  </si>
-  <si>
-    <t>single-compartment</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>PFHpA</t>
-  </si>
-  <si>
-    <t>PFHxA</t>
-  </si>
-  <si>
-    <t>PFHxS</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,9 +217,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87C1465E-0286-4E19-8C53-EBB020F628F3}" name="Table1" displayName="Table1" ref="A1:L75" totalsRowShown="0">
   <autoFilter ref="A1:L75" xr:uid="{87C1465E-0286-4E19-8C53-EBB020F628F3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L75">
-    <sortCondition ref="D1:D75"/>
-  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0996B758-015A-4B42-A102-1435FBC9907F}" name="Study"/>
     <tableColumn id="2" xr3:uid="{C50716F4-B3C3-49E8-B3F5-C613AA6C3E81}" name="strain"/>
@@ -508,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,31 +541,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -577,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -615,10 +623,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
       </c>
       <c r="H3">
         <v>175</v>
@@ -653,10 +661,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4">
         <v>350</v>
@@ -691,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>5.3</v>
@@ -729,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>25.4</v>
@@ -767,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>130.19999999999999</v>
@@ -805,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>35.01</v>
@@ -843,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>175</v>
@@ -881,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>350</v>
@@ -919,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
       </c>
       <c r="H11">
         <v>5.3010000000000002</v>
@@ -957,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
       </c>
       <c r="H12">
         <v>25.4</v>
@@ -995,10 +1003,10 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>130.19999999999999</v>
@@ -1033,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0.156</v>
@@ -1071,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0.312</v>
@@ -1109,10 +1117,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0.625</v>
@@ -1147,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1.25</v>
@@ -1185,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>2.5</v>
@@ -1223,10 +1231,10 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0.156</v>
@@ -1261,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0.312</v>
@@ -1299,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0.625</v>
@@ -1337,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1.25</v>
@@ -1375,10 +1383,10 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2.5</v>
@@ -1407,16 +1415,16 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>31.26</v>
@@ -1445,16 +1453,16 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>62.51</v>
@@ -1483,16 +1491,16 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>125</v>
@@ -1521,16 +1529,16 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>62.61</v>
@@ -1559,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>125</v>
@@ -1597,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>250</v>
@@ -1635,16 +1643,16 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>500</v>
@@ -1673,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1000</v>
@@ -1711,16 +1719,16 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>31.25</v>
@@ -1749,16 +1757,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>62.5</v>
@@ -1787,16 +1795,16 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>125</v>
@@ -1825,16 +1833,16 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>62.6</v>
@@ -1863,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>125</v>
@@ -1901,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>250</v>
@@ -1939,16 +1947,16 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>500</v>
@@ -1977,16 +1985,16 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1000</v>
@@ -2015,16 +2023,16 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>3.1219999999999999</v>
@@ -2053,16 +2061,16 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>6.2519999999999998</v>
@@ -2091,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>12.5</v>
@@ -2129,16 +2137,16 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>25</v>
@@ -2167,16 +2175,16 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>50</v>
@@ -2205,16 +2213,16 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0.62509999999999999</v>
@@ -2243,16 +2251,16 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1.25</v>
@@ -2281,16 +2289,16 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>2.5</v>
@@ -2319,16 +2327,16 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -2357,16 +2365,16 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2401,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1.56</v>
@@ -2439,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>3.12</v>
@@ -2477,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>6.25</v>
@@ -2515,10 +2523,10 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0.625</v>
@@ -2553,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1.25</v>
@@ -2591,10 +2599,10 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>2.5</v>
@@ -2629,10 +2637,10 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>0.625</v>
@@ -2667,10 +2675,10 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1.25</v>
@@ -2705,10 +2713,10 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2.5</v>
@@ -2743,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -2781,10 +2789,10 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -2819,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>6.25</v>
@@ -2857,10 +2865,10 @@
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>12.5</v>
@@ -2895,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>25</v>
@@ -2933,10 +2941,10 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>50</v>
@@ -2971,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -3009,10 +3017,10 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>0.312</v>
@@ -3027,7 +3035,7 @@
         <v>696</v>
       </c>
       <c r="L66">
-        <v>23.73</v>
+        <v>30.53</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3047,10 +3055,10 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0.625</v>
@@ -3065,7 +3073,7 @@
         <v>696</v>
       </c>
       <c r="L67">
-        <v>51.56</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3085,10 +3093,10 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>1.25</v>
@@ -3103,7 +3111,7 @@
         <v>696</v>
       </c>
       <c r="L68">
-        <v>94.26</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3123,10 +3131,10 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2.5</v>
@@ -3141,7 +3149,7 @@
         <v>696</v>
       </c>
       <c r="L69">
-        <v>173.7</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3161,10 +3169,10 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -3179,7 +3187,7 @@
         <v>696</v>
       </c>
       <c r="L70">
-        <v>318.2</v>
+        <v>413.6</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3199,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0.312</v>
@@ -3217,7 +3225,7 @@
         <v>696</v>
       </c>
       <c r="L71">
-        <v>30.53</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3237,10 +3245,10 @@
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0.625</v>
@@ -3255,7 +3263,7 @@
         <v>696</v>
       </c>
       <c r="L72">
-        <v>66.97</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3275,10 +3283,10 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>1.25</v>
@@ -3293,7 +3301,7 @@
         <v>696</v>
       </c>
       <c r="L73">
-        <v>135.1</v>
+        <v>94.26</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3313,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2.5</v>
@@ -3331,7 +3339,7 @@
         <v>696</v>
       </c>
       <c r="L74">
-        <v>237.5</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3351,10 +3359,10 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -3369,10 +3377,13 @@
         <v>696</v>
       </c>
       <c r="L75">
-        <v>413.6</v>
+        <v>318.2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D70:E75">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/Additional files/Datasets/general/validation_data.xlsx
+++ b/Additional files/Datasets/general/validation_data.xlsx
@@ -1,99 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oehhacloud-my.sharepoint.com/personal/scott_coffin_oehha_ca_gov/Documents/R_new/PFOS_PBPK_fork/Additional files/Datasets/general/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott.Coffin\OneDrive - California OEHHA\R_new\PFOS_PBPK_fork\Additional files\Datasets\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{92551407-7306-4BC8-9F1E-BE7E0DC0E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29012439-9740-437F-A70F-5151D67468C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7305EEB-5426-469C-80E2-A9A7C76C34AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A96A16E-086D-4F7A-9154-7BE0A8A506C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Measured Serum Comparison" sheetId="3" r:id="rId1"/>
+    <sheet name="validation_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="46">
   <si>
     <t>Study</t>
-  </si>
-  <si>
-    <t>route</t>
   </si>
   <si>
     <t>strain</t>
   </si>
   <si>
-    <t>NTP 2019 28 day study</t>
-  </si>
-  <si>
-    <t>PFOS</t>
-  </si>
-  <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>Intragastric</t>
-  </si>
-  <si>
-    <t>Sprague-Dawley</t>
-  </si>
-  <si>
-    <t>PFNA</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>CD1</t>
-  </si>
-  <si>
-    <t>PFDA</t>
-  </si>
-  <si>
-    <t>PFOA</t>
-  </si>
-  <si>
-    <t>NTP 2019a 28 days</t>
-  </si>
-  <si>
-    <t>Butenhoff et al 2012a (published), van Otterdijk 2007a (3M study - cannot find online; in CDs?) male Sprague Dawley rats (Crl:CD,
-outbred, SPF quality)</t>
-  </si>
-  <si>
-    <t>PFBA</t>
-  </si>
-  <si>
-    <t>dermal</t>
-  </si>
-  <si>
-    <t>Foreman et al 2009</t>
-  </si>
-  <si>
-    <t>Sv/129</t>
-  </si>
-  <si>
-    <t>Weatherly et al 2023</t>
-  </si>
-  <si>
-    <t>B6C3F1</t>
-  </si>
-  <si>
-    <t>NTP 2019a</t>
-  </si>
-  <si>
-    <t>Das et al. 2008 pregnant F mouse</t>
-  </si>
-  <si>
-    <t>Butenhoff et al 2012a (published), van Otterdijk 2007a (3M study - cannot find online; in CDs?) female Sprague Dawley rats (Crl:CD,
-outbred, SPF quality)</t>
+    <t>route</t>
   </si>
   <si>
     <t>PFAS</t>
@@ -105,10 +40,16 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Model_Type</t>
+  </si>
+  <si>
     <t>Dose_mg_per_kg</t>
   </si>
   <si>
     <t>Interval_Hours</t>
+  </si>
+  <si>
+    <t>Exposure_Duration_Days</t>
   </si>
   <si>
     <t>Time_Serum_Collected_hr</t>
@@ -117,10 +58,19 @@
     <t>Serum_Concentration_mg_L</t>
   </si>
   <si>
-    <t>Model_Type</t>
+    <t>Das et al. 2008 pregnant F mouse</t>
   </si>
   <si>
-    <t>Exposure_Duration_Days</t>
+    <t>CD1</t>
+  </si>
+  <si>
+    <t>Intragastric</t>
+  </si>
+  <si>
+    <t>PFBA</t>
+  </si>
+  <si>
+    <t>Mouse</t>
   </si>
   <si>
     <t>Female</t>
@@ -129,13 +79,56 @@
     <t>two-compartment</t>
   </si>
   <si>
-    <t>single-compartment</t>
+    <t>Butenhoff et al 2012a (published), van Otterdijk 2007a (3M study - cannot find online; in CDs?) male Sprague Dawley rats (Crl:CD,_x000D_
+_x000D_
+outbred, SPF quality)</t>
+  </si>
+  <si>
+    <t>Sprague-Dawley</t>
+  </si>
+  <si>
+    <t>Rat</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
+    <t>single-compartment</t>
+  </si>
+  <si>
+    <t>Foreman et al 2009</t>
+  </si>
+  <si>
+    <t>Sv/129</t>
+  </si>
+  <si>
+    <t>MassTransferPBPK</t>
+  </si>
+  <si>
+    <t>Butenhoff et al 2012a (published), van Otterdijk 2007a (3M study - cannot find online; in CDs?) female Sprague Dawley rats (Crl:CD,_x000D_
+_x000D_
+outbred, SPF quality)</t>
+  </si>
+  <si>
+    <t>NTP 2019 28 day study</t>
+  </si>
+  <si>
+    <t>PFDA</t>
+  </si>
+  <si>
+    <t>Weatherly et al 2023</t>
+  </si>
+  <si>
+    <t>B6C3F1</t>
+  </si>
+  <si>
+    <t>dermal</t>
+  </si>
+  <si>
     <t>PFHpA</t>
+  </si>
+  <si>
+    <t>NTP 2019a</t>
   </si>
   <si>
     <t>PFHxA</t>
@@ -144,31 +137,355 @@
     <t>PFHxS</t>
   </si>
   <si>
+    <t>PFNA</t>
+  </si>
+  <si>
+    <t>NTP 2019a 28 days</t>
+  </si>
+  <si>
+    <t>PFOA</t>
+  </si>
+  <si>
+    <t>PFOS</t>
+  </si>
+  <si>
     <t>PBPK</t>
+  </si>
+  <si>
+    <t>NTP 2020 - 16 week (Study 1)</t>
+  </si>
+  <si>
+    <t>NTP 2020 - 16 week (Study 2)</t>
+  </si>
+  <si>
+    <t>Unknown - ask Heather</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,28 +493,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -208,31 +706,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87C1465E-0286-4E19-8C53-EBB020F628F3}" name="Table1" displayName="Table1" ref="A1:L75" totalsRowShown="0">
-  <autoFilter ref="A1:L75" xr:uid="{87C1465E-0286-4E19-8C53-EBB020F628F3}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0996B758-015A-4B42-A102-1435FBC9907F}" name="Study"/>
-    <tableColumn id="2" xr3:uid="{C50716F4-B3C3-49E8-B3F5-C613AA6C3E81}" name="strain"/>
-    <tableColumn id="3" xr3:uid="{1B9E1CB6-A48F-4A90-A502-1B468CC64B9B}" name="route"/>
-    <tableColumn id="4" xr3:uid="{01E6C5F8-5A09-410D-9E86-517359C6C61A}" name="PFAS"/>
-    <tableColumn id="5" xr3:uid="{94422FF6-7224-4EEC-A22D-D7D7AF4D302B}" name="Species"/>
-    <tableColumn id="6" xr3:uid="{7EC0B4A1-ADFB-48AB-BF46-1A55842EAF20}" name="Sex"/>
-    <tableColumn id="7" xr3:uid="{C0CD46BC-C6A1-4373-98A7-F678BAEF8B5B}" name="Model_Type"/>
-    <tableColumn id="8" xr3:uid="{C268CC81-103D-4819-B224-F0A50ED7B499}" name="Dose_mg_per_kg"/>
-    <tableColumn id="9" xr3:uid="{153C98E4-F5CA-477D-84FE-1EB8AC422041}" name="Interval_Hours"/>
-    <tableColumn id="10" xr3:uid="{7CF686BA-0F15-4237-9CA4-A118E999D614}" name="Exposure_Duration_Days"/>
-    <tableColumn id="11" xr3:uid="{8AF6DC81-D8D8-4933-B6D5-D78D052C6339}" name="Time_Serum_Collected_hr"/>
-    <tableColumn id="12" xr3:uid="{5EF600EA-086D-42DB-B275-3857B1095C4E}" name="Serum_Concentration_mg_L"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -246,41 +719,45 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -307,11 +784,32 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -338,6 +836,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,246 +864,232 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9D4B05-D2BF-4F9B-9FC7-9A78419D37A4}">
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -608,25 +1109,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>175</v>
@@ -646,25 +1147,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>350</v>
@@ -683,26 +1184,26 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>5.3</v>
@@ -721,26 +1222,26 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>25.4</v>
@@ -759,26 +1260,26 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>130.19999999999999</v>
@@ -798,25 +1299,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>35.01</v>
@@ -836,25 +1337,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>175</v>
@@ -874,25 +1375,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>350</v>
@@ -911,26 +1412,26 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>5.3010000000000002</v>
@@ -949,26 +1450,26 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>25.4</v>
@@ -987,26 +1488,26 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>130.19999999999999</v>
@@ -1026,25 +1527,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>0.156</v>
@@ -1064,25 +1565,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>0.312</v>
@@ -1102,25 +1603,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H16">
         <v>0.625</v>
@@ -1140,25 +1641,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>1.25</v>
@@ -1178,25 +1679,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>2.5</v>
@@ -1216,25 +1717,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>0.156</v>
@@ -1254,25 +1755,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <v>0.312</v>
@@ -1292,25 +1793,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>0.625</v>
@@ -1330,25 +1831,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>1.25</v>
@@ -1368,25 +1869,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>2.5</v>
@@ -1406,25 +1907,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>31.26</v>
@@ -1444,25 +1945,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H25">
         <v>62.51</v>
@@ -1482,25 +1983,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H26">
         <v>125</v>
@@ -1520,25 +2021,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>62.61</v>
@@ -1558,25 +2059,25 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H28">
         <v>125</v>
@@ -1596,25 +2097,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H29">
         <v>250</v>
@@ -1634,25 +2135,25 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H30">
         <v>500</v>
@@ -1672,25 +2173,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H31">
         <v>1000</v>
@@ -1710,25 +2211,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H32">
         <v>31.25</v>
@@ -1748,25 +2249,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H33">
         <v>62.5</v>
@@ -1786,25 +2287,25 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H34">
         <v>125</v>
@@ -1824,25 +2325,25 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H35">
         <v>62.6</v>
@@ -1862,25 +2363,25 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>125</v>
@@ -1900,25 +2401,25 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>250</v>
@@ -1938,25 +2439,25 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H38">
         <v>500</v>
@@ -1976,25 +2477,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H39">
         <v>1000</v>
@@ -2014,25 +2515,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H40">
         <v>3.1219999999999999</v>
@@ -2052,25 +2553,25 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H41">
         <v>6.2519999999999998</v>
@@ -2090,25 +2591,25 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>12.5</v>
@@ -2128,25 +2629,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H43">
         <v>25</v>
@@ -2166,25 +2667,25 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H44">
         <v>50</v>
@@ -2204,25 +2705,25 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <v>0.62509999999999999</v>
@@ -2242,25 +2743,25 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H46">
         <v>1.25</v>
@@ -2280,25 +2781,25 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H47">
         <v>2.5</v>
@@ -2318,25 +2819,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -2356,25 +2857,25 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2394,25 +2895,25 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H50">
         <v>1.56</v>
@@ -2432,25 +2933,25 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H51">
         <v>3.12</v>
@@ -2470,25 +2971,25 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H52">
         <v>6.25</v>
@@ -2508,25 +3009,25 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0.625</v>
@@ -2546,25 +3047,25 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H54">
         <v>1.25</v>
@@ -2584,25 +3085,25 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H55">
         <v>2.5</v>
@@ -2622,25 +3123,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H56">
         <v>0.625</v>
@@ -2660,25 +3161,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H57">
         <v>1.25</v>
@@ -2698,25 +3199,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H58">
         <v>2.5</v>
@@ -2736,25 +3237,25 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -2774,25 +3275,25 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -2812,25 +3313,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H61">
         <v>6.25</v>
@@ -2850,25 +3351,25 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H62">
         <v>12.5</v>
@@ -2888,25 +3389,25 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H63">
         <v>25</v>
@@ -2926,25 +3427,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H64">
         <v>50</v>
@@ -2964,25 +3465,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -3002,25 +3503,25 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H66">
         <v>0.312</v>
@@ -3040,25 +3541,25 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H67">
         <v>0.625</v>
@@ -3078,25 +3579,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H68">
         <v>1.25</v>
@@ -3116,25 +3617,25 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H69">
         <v>2.5</v>
@@ -3154,25 +3655,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -3192,25 +3693,25 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>0.312</v>
@@ -3230,25 +3731,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>0.625</v>
@@ -3268,25 +3769,25 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>1.25</v>
@@ -3306,25 +3807,25 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>2.5</v>
@@ -3344,25 +3845,25 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -3380,14 +3881,653 @@
         <v>318.2</v>
       </c>
     </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76">
+        <v>14.7</v>
+      </c>
+      <c r="I76">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>112</v>
+      </c>
+      <c r="K76">
+        <v>2712</v>
+      </c>
+      <c r="L76">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>29.5</v>
+      </c>
+      <c r="I77">
+        <v>24</v>
+      </c>
+      <c r="J77">
+        <v>112</v>
+      </c>
+      <c r="K77">
+        <v>2712</v>
+      </c>
+      <c r="L77">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>29.6</v>
+      </c>
+      <c r="I78">
+        <v>24</v>
+      </c>
+      <c r="J78">
+        <v>112</v>
+      </c>
+      <c r="K78">
+        <v>2712</v>
+      </c>
+      <c r="L78">
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>98.6</v>
+      </c>
+      <c r="I79">
+        <v>24</v>
+      </c>
+      <c r="J79">
+        <v>112</v>
+      </c>
+      <c r="K79">
+        <v>2712</v>
+      </c>
+      <c r="L79">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>1.8</v>
+      </c>
+      <c r="I80">
+        <v>24</v>
+      </c>
+      <c r="J80">
+        <v>112</v>
+      </c>
+      <c r="K80">
+        <v>2712</v>
+      </c>
+      <c r="L80">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81">
+        <v>3.7</v>
+      </c>
+      <c r="I81">
+        <v>24</v>
+      </c>
+      <c r="J81">
+        <v>112</v>
+      </c>
+      <c r="K81">
+        <v>2712</v>
+      </c>
+      <c r="L81">
+        <v>130.78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>7.5</v>
+      </c>
+      <c r="I82">
+        <v>24</v>
+      </c>
+      <c r="J82">
+        <v>112</v>
+      </c>
+      <c r="K82">
+        <v>2712</v>
+      </c>
+      <c r="L82">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83">
+        <v>14.7</v>
+      </c>
+      <c r="I83">
+        <v>24</v>
+      </c>
+      <c r="J83">
+        <v>112</v>
+      </c>
+      <c r="K83">
+        <v>2712</v>
+      </c>
+      <c r="L83">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84">
+        <v>29.5</v>
+      </c>
+      <c r="I84">
+        <v>24</v>
+      </c>
+      <c r="J84">
+        <v>112</v>
+      </c>
+      <c r="K84">
+        <v>2712</v>
+      </c>
+      <c r="L84">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85">
+        <v>29.6</v>
+      </c>
+      <c r="I85">
+        <v>24</v>
+      </c>
+      <c r="J85">
+        <v>112</v>
+      </c>
+      <c r="K85">
+        <v>2712</v>
+      </c>
+      <c r="L85">
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>98.6</v>
+      </c>
+      <c r="I86">
+        <v>24</v>
+      </c>
+      <c r="J86">
+        <v>112</v>
+      </c>
+      <c r="K86">
+        <v>2712</v>
+      </c>
+      <c r="L86">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87">
+        <v>1.8</v>
+      </c>
+      <c r="I87">
+        <v>24</v>
+      </c>
+      <c r="J87">
+        <v>112</v>
+      </c>
+      <c r="K87">
+        <v>2712</v>
+      </c>
+      <c r="L87">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>3.7</v>
+      </c>
+      <c r="I88">
+        <v>24</v>
+      </c>
+      <c r="J88">
+        <v>112</v>
+      </c>
+      <c r="K88">
+        <v>2712</v>
+      </c>
+      <c r="L88">
+        <v>130.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>7.5</v>
+      </c>
+      <c r="I89">
+        <v>24</v>
+      </c>
+      <c r="J89">
+        <v>112</v>
+      </c>
+      <c r="K89">
+        <v>2712</v>
+      </c>
+      <c r="L89">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90">
+        <v>0.04</v>
+      </c>
+      <c r="I90">
+        <v>24</v>
+      </c>
+      <c r="J90">
+        <v>28</v>
+      </c>
+      <c r="K90">
+        <v>696</v>
+      </c>
+      <c r="L90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>24</v>
+      </c>
+      <c r="J91">
+        <v>28</v>
+      </c>
+      <c r="K91">
+        <v>696</v>
+      </c>
+      <c r="L91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>24</v>
+      </c>
+      <c r="J92">
+        <v>28</v>
+      </c>
+      <c r="K92">
+        <v>696</v>
+      </c>
+      <c r="L92">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D70:E75">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>